--- a/DropshipEsty/etc/Configs/AmazonProductTemplate.xlsx
+++ b/DropshipEsty/etc/Configs/AmazonProductTemplate.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="479">
   <si>
     <t>The top 3 rows are for Amazon.com use only. Do not modify or delete the top 3 rows.</t>
   </si>
@@ -1432,6 +1432,24 @@
   </si>
   <si>
     <t>target_audience_keywords</t>
+  </si>
+  <si>
+    <t>Outer Material Type</t>
+  </si>
+  <si>
+    <t>outer_material_type1</t>
+  </si>
+  <si>
+    <t>Material Composition</t>
+  </si>
+  <si>
+    <t>material_composition1</t>
+  </si>
+  <si>
+    <t>is_adult_product</t>
+  </si>
+  <si>
+    <t>Is Adult Product</t>
   </si>
   <si>
     <t>Department</t>
@@ -1444,7 +1462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1470,19 +1488,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1606,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1701,12 +1706,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,7 +1979,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1988,15 +1987,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IQ3"/>
+  <dimension ref="A1:IT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BE7" sqref="BE7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="18.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:254" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>468</v>
       </c>
@@ -2014,36 +2018,36 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -2067,17 +2071,17 @@
       <c r="BB1" s="6"/>
       <c r="BC1" s="6"/>
       <c r="BD1" s="6"/>
-      <c r="BE1" s="25"/>
+      <c r="BE1" s="6"/>
       <c r="BF1" s="6"/>
       <c r="BG1" s="6"/>
       <c r="BH1" s="6"/>
       <c r="BI1" s="6"/>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
       <c r="BN1" s="7"/>
       <c r="BO1" s="7"/>
       <c r="BP1" s="7"/>
@@ -2130,12 +2134,12 @@
       <c r="DK1" s="7"/>
       <c r="DL1" s="7"/>
       <c r="DM1" s="7"/>
-      <c r="DN1" s="8" t="s">
+      <c r="DN1" s="7"/>
+      <c r="DO1" s="7"/>
+      <c r="DP1" s="7"/>
+      <c r="DQ1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="DO1" s="8"/>
-      <c r="DP1" s="8"/>
-      <c r="DQ1" s="8"/>
       <c r="DR1" s="8"/>
       <c r="DS1" s="8"/>
       <c r="DT1" s="8"/>
@@ -2159,21 +2163,21 @@
       <c r="EL1" s="8"/>
       <c r="EM1" s="8"/>
       <c r="EN1" s="8"/>
-      <c r="EO1" s="9" t="s">
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="EP1" s="9"/>
-      <c r="EQ1" s="9"/>
-      <c r="ER1" s="9"/>
       <c r="ES1" s="9"/>
       <c r="ET1" s="9"/>
       <c r="EU1" s="9"/>
-      <c r="EV1" s="10" t="s">
+      <c r="EV1" s="9"/>
+      <c r="EW1" s="9"/>
+      <c r="EX1" s="9"/>
+      <c r="EY1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
       <c r="EZ1" s="10"/>
       <c r="FA1" s="10"/>
       <c r="FB1" s="10"/>
@@ -2222,12 +2226,12 @@
       <c r="GS1" s="10"/>
       <c r="GT1" s="10"/>
       <c r="GU1" s="10"/>
-      <c r="GV1" s="11" t="s">
+      <c r="GV1" s="10"/>
+      <c r="GW1" s="10"/>
+      <c r="GX1" s="10"/>
+      <c r="GY1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
       <c r="GZ1" s="11"/>
       <c r="HA1" s="11"/>
       <c r="HB1" s="11"/>
@@ -2247,12 +2251,12 @@
       <c r="HP1" s="11"/>
       <c r="HQ1" s="11"/>
       <c r="HR1" s="11"/>
-      <c r="HS1" s="5" t="s">
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="HT1" s="5"/>
-      <c r="HU1" s="5"/>
-      <c r="HV1" s="5"/>
       <c r="HW1" s="5"/>
       <c r="HX1" s="5"/>
       <c r="HY1" s="5"/>
@@ -2274,8 +2278,11 @@
       <c r="IO1" s="5"/>
       <c r="IP1" s="5"/>
       <c r="IQ1" s="5"/>
+      <c r="IR1" s="5"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
     </row>
-    <row r="2" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:254" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
@@ -2307,103 +2314,103 @@
         <v>20</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="X2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AD2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AE2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AF2" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="AH2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AM2" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AR2" s="17" t="s">
         <v>32</v>
@@ -2412,418 +2419,418 @@
         <v>32</v>
       </c>
       <c r="AT2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX2" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="AU2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX2" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="AY2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="AZ2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BE2" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="BB2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" s="26" t="s">
-        <v>471</v>
       </c>
       <c r="BF2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="BG2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BK2" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="BJ2" s="18" t="s">
+      <c r="BM2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="BK2" s="18" t="s">
+      <c r="BN2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="BL2" s="18" t="s">
+      <c r="BO2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="BM2" s="18" t="s">
+      <c r="BP2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="BN2" s="18" t="s">
+      <c r="BQ2" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="BO2" s="18" t="s">
+      <c r="BR2" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="BP2" s="18" t="s">
+      <c r="BS2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="BQ2" s="18" t="s">
+      <c r="BT2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="BR2" s="18" t="s">
+      <c r="BU2" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="BS2" s="18" t="s">
+      <c r="BV2" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="BT2" s="18" t="s">
+      <c r="BW2" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="BU2" s="18" t="s">
+      <c r="BX2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="BV2" s="18" t="s">
+      <c r="BY2" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="BW2" s="18" t="s">
+      <c r="BZ2" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="BX2" s="18" t="s">
+      <c r="CA2" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="BY2" s="18" t="s">
+      <c r="CB2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="BZ2" s="18" t="s">
+      <c r="CC2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="CA2" s="18" t="s">
+      <c r="CD2" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="CB2" s="18" t="s">
+      <c r="CE2" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="CC2" s="18" t="s">
+      <c r="CF2" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="CD2" s="18" t="s">
+      <c r="CG2" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="CE2" s="18" t="s">
+      <c r="CH2" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="CF2" s="18" t="s">
+      <c r="CI2" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="CG2" s="18" t="s">
+      <c r="CJ2" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="CH2" s="18" t="s">
+      <c r="CK2" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="CI2" s="18" t="s">
+      <c r="CL2" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="CJ2" s="18" t="s">
+      <c r="CM2" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="CK2" s="18" t="s">
+      <c r="CN2" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="CL2" s="18" t="s">
+      <c r="CO2" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="CM2" s="18" t="s">
+      <c r="CP2" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="CN2" s="18" t="s">
+      <c r="CQ2" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="CO2" s="18" t="s">
+      <c r="CR2" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="CP2" s="18" t="s">
+      <c r="CS2" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="CQ2" s="18" t="s">
+      <c r="CT2" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="CR2" s="18" t="s">
+      <c r="CU2" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="CS2" s="18" t="s">
+      <c r="CV2" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="CT2" s="18" t="s">
+      <c r="CW2" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="CU2" s="18" t="s">
+      <c r="CX2" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="CV2" s="18" t="s">
+      <c r="CY2" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="CW2" s="18" t="s">
+      <c r="CZ2" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="CX2" s="18" t="s">
+      <c r="DA2" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="CY2" s="18" t="s">
+      <c r="DB2" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="CZ2" s="18" t="s">
+      <c r="DC2" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="DA2" s="18" t="s">
+      <c r="DD2" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="DB2" s="18" t="s">
+      <c r="DE2" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="DC2" s="18" t="s">
+      <c r="DF2" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="DD2" s="18" t="s">
+      <c r="DG2" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="DE2" s="18" t="s">
+      <c r="DH2" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="DF2" s="18" t="s">
+      <c r="DI2" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="DG2" s="18" t="s">
+      <c r="DJ2" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="DH2" s="18" t="s">
+      <c r="DK2" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="DI2" s="18" t="s">
+      <c r="DL2" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="DJ2" s="18" t="s">
+      <c r="DM2" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="DK2" s="18" t="s">
+      <c r="DN2" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="DL2" s="18" t="s">
+      <c r="DO2" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="DM2" s="18" t="s">
+      <c r="DP2" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="DN2" s="19" t="s">
+      <c r="DQ2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="DO2" s="19" t="s">
+      <c r="DR2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="DP2" s="19" t="s">
+      <c r="DS2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="DQ2" s="19" t="s">
+      <c r="DT2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="DR2" s="19" t="s">
+      <c r="DU2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="DS2" s="19" t="s">
+      <c r="DV2" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="DT2" s="19" t="s">
+      <c r="DW2" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="DU2" s="19" t="s">
+      <c r="DX2" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="DV2" s="19" t="s">
+      <c r="DY2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="DW2" s="19" t="s">
+      <c r="DZ2" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="DX2" s="19" t="s">
+      <c r="EA2" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="DY2" s="19" t="s">
+      <c r="EB2" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="DZ2" s="19" t="s">
+      <c r="EC2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="EA2" s="19" t="s">
+      <c r="ED2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="EB2" s="19" t="s">
+      <c r="EE2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="EC2" s="19" t="s">
+      <c r="EF2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="ED2" s="19" t="s">
+      <c r="EG2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="EE2" s="19" t="s">
+      <c r="EH2" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="EF2" s="19" t="s">
+      <c r="EI2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="EG2" s="19" t="s">
+      <c r="EJ2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="EH2" s="19" t="s">
+      <c r="EK2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="EI2" s="19" t="s">
+      <c r="EL2" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="EJ2" s="19" t="s">
+      <c r="EM2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="EK2" s="19" t="s">
+      <c r="EN2" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="EL2" s="19" t="s">
+      <c r="EO2" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="EM2" s="19" t="s">
+      <c r="EP2" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="EN2" s="19" t="s">
+      <c r="EQ2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="EO2" s="20" t="s">
+      <c r="ER2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="EP2" s="20" t="s">
+      <c r="ES2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="EQ2" s="20" t="s">
+      <c r="ET2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="ER2" s="20" t="s">
+      <c r="EU2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="ES2" s="20" t="s">
+      <c r="EV2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="ET2" s="20" t="s">
+      <c r="EW2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="EU2" s="20" t="s">
+      <c r="EX2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="EV2" s="21" t="s">
+      <c r="EY2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="EW2" s="21" t="s">
+      <c r="EZ2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="EX2" s="21" t="s">
+      <c r="FA2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="EY2" s="21" t="s">
+      <c r="FB2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EZ2" s="21" t="s">
+      <c r="FC2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="FA2" s="21" t="s">
+      <c r="FD2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="FB2" s="21" t="s">
+      <c r="FE2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="FC2" s="21" t="s">
+      <c r="FF2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="FD2" s="21" t="s">
+      <c r="FG2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="FE2" s="21" t="s">
+      <c r="FH2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="FF2" s="21" t="s">
+      <c r="FI2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="FG2" s="21" t="s">
+      <c r="FJ2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="FH2" s="21" t="s">
+      <c r="FK2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="FI2" s="21" t="s">
+      <c r="FL2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="FJ2" s="21" t="s">
+      <c r="FM2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="FK2" s="21" t="s">
+      <c r="FN2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="FL2" s="21" t="s">
+      <c r="FO2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="FM2" s="21" t="s">
+      <c r="FP2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="FN2" s="21" t="s">
+      <c r="FQ2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="FO2" s="21" t="s">
+      <c r="FR2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="FP2" s="21" t="s">
+      <c r="FS2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="FQ2" s="21" t="s">
+      <c r="FT2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="FR2" s="21" t="s">
+      <c r="FU2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="FS2" s="21" t="s">
+      <c r="FV2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="FT2" s="21" t="s">
+      <c r="FW2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="FU2" s="21" t="s">
+      <c r="FX2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="FV2" s="21" t="s">
+      <c r="FY2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="FW2" s="21" t="s">
+      <c r="FZ2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="FX2" s="21" t="s">
+      <c r="GA2" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="FY2" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="FZ2" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="GA2" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="GB2" s="21" t="s">
         <v>97</v>
@@ -2832,205 +2839,214 @@
         <v>97</v>
       </c>
       <c r="GD2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="GE2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="GF2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="GG2" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="GE2" s="21" t="s">
+      <c r="GH2" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="GF2" s="21" t="s">
+      <c r="GI2" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="GG2" s="21" t="s">
+      <c r="GJ2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="GH2" s="21" t="s">
+      <c r="GK2" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="GI2" s="21" t="s">
+      <c r="GL2" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="GJ2" s="21" t="s">
+      <c r="GM2" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="GK2" s="21" t="s">
+      <c r="GN2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="GL2" s="21" t="s">
+      <c r="GO2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="GM2" s="21" t="s">
+      <c r="GP2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="GN2" s="21" t="s">
+      <c r="GQ2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="GO2" s="21" t="s">
+      <c r="GR2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="GP2" s="21" t="s">
+      <c r="GS2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="GQ2" s="21" t="s">
+      <c r="GT2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="GR2" s="21" t="s">
+      <c r="GU2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="GS2" s="21" t="s">
+      <c r="GV2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="GT2" s="21" t="s">
+      <c r="GW2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="GU2" s="21" t="s">
+      <c r="GX2" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="GV2" s="22" t="s">
+      <c r="GY2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="GW2" s="22" t="s">
+      <c r="GZ2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="GX2" s="22" t="s">
+      <c r="HA2" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="GY2" s="22" t="s">
+      <c r="HB2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="GZ2" s="22" t="s">
+      <c r="HC2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="HA2" s="22" t="s">
+      <c r="HD2" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="HB2" s="22" t="s">
+      <c r="HE2" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="HC2" s="22" t="s">
+      <c r="HF2" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="HD2" s="22" t="s">
+      <c r="HG2" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="HE2" s="22" t="s">
+      <c r="HH2" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="HF2" s="22" t="s">
+      <c r="HI2" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="HG2" s="22" t="s">
+      <c r="HJ2" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="HH2" s="22" t="s">
+      <c r="HK2" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="HI2" s="22" t="s">
+      <c r="HL2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="HJ2" s="22" t="s">
+      <c r="HM2" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="HK2" s="22" t="s">
+      <c r="HN2" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="HL2" s="22" t="s">
+      <c r="HO2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="HM2" s="22" t="s">
+      <c r="HP2" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="HN2" s="22" t="s">
+      <c r="HQ2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="HO2" s="22" t="s">
+      <c r="HR2" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="HP2" s="22" t="s">
+      <c r="HS2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="HQ2" s="22" t="s">
+      <c r="HT2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="HR2" s="22" t="s">
+      <c r="HU2" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="HS2" s="16" t="s">
+      <c r="HV2" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="HT2" s="16" t="s">
+      <c r="HW2" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="HU2" s="16" t="s">
+      <c r="HX2" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="HV2" s="16" t="s">
+      <c r="HY2" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="HW2" s="16" t="s">
+      <c r="HZ2" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="HX2" s="16" t="s">
+      <c r="IA2" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="HY2" s="16" t="s">
+      <c r="IB2" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="HZ2" s="16" t="s">
+      <c r="IC2" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="IA2" s="16" t="s">
+      <c r="ID2" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="IB2" s="16" t="s">
+      <c r="IE2" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="IC2" s="16" t="s">
+      <c r="IF2" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="ID2" s="16" t="s">
+      <c r="IG2" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="IE2" s="16" t="s">
+      <c r="IH2" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="IF2" s="16" t="s">
+      <c r="II2" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="IG2" s="16" t="s">
+      <c r="IJ2" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="IH2" s="16" t="s">
+      <c r="IK2" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="II2" s="16" t="s">
+      <c r="IL2" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="IJ2" s="16" t="s">
+      <c r="IM2" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="IK2" s="16" t="s">
+      <c r="IN2" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="IL2" s="16" t="s">
+      <c r="IO2" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="IM2" s="16" t="s">
+      <c r="IP2" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="IN2" s="16" t="s">
+      <c r="IQ2" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="IO2" s="16" t="s">
+      <c r="IR2" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="IP2" s="16" t="s">
+      <c r="IS2" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="IQ2" s="16" t="s">
+      <c r="IT2" s="16" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:251" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:254" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>145</v>
       </c>
@@ -3062,839 +3078,848 @@
         <v>155</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="Q3" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="AC3" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="AD3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AG3" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AH3" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AI3" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AK3" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AL3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AM3" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AN3" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AO3" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AP3" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AQ3" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AR3" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AS3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AT3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="AQ3" s="17" t="s">
+      <c r="AU3" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="AR3" s="17" t="s">
+      <c r="AV3" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AW3" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="AT3" s="17" t="s">
+      <c r="AX3" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AU3" s="17" t="s">
+      <c r="AY3" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="AV3" s="17" t="s">
+      <c r="AZ3" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="AW3" s="17" t="s">
+      <c r="BA3" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="AX3" s="17" t="s">
+      <c r="BB3" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="AY3" s="17" t="s">
+      <c r="BC3" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="AZ3" s="17" t="s">
+      <c r="BD3" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="BA3" s="17" t="s">
+      <c r="BE3" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="BB3" s="17" t="s">
+      <c r="BF3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="BC3" s="17" t="s">
+      <c r="BG3" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BH3" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="BE3" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="BF3" s="17" t="s">
+      <c r="BI3" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="BG3" s="17" t="s">
+      <c r="BJ3" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="BH3" s="17" t="s">
+      <c r="BK3" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="BI3" s="17" t="s">
+      <c r="BL3" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="BJ3" s="18" t="s">
+      <c r="BM3" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="BK3" s="18" t="s">
+      <c r="BN3" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="BL3" s="18" t="s">
+      <c r="BO3" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="BM3" s="18" t="s">
+      <c r="BP3" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="BN3" s="18" t="s">
+      <c r="BQ3" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="BO3" s="18" t="s">
+      <c r="BR3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BP3" s="18" t="s">
+      <c r="BS3" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="BQ3" s="18" t="s">
+      <c r="BT3" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="BR3" s="18" t="s">
+      <c r="BU3" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="BS3" s="18" t="s">
+      <c r="BV3" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="BT3" s="18" t="s">
+      <c r="BW3" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="BU3" s="18" t="s">
+      <c r="BX3" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="BV3" s="18" t="s">
+      <c r="BY3" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="BW3" s="18" t="s">
+      <c r="BZ3" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="BX3" s="18" t="s">
+      <c r="CA3" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="BY3" s="18" t="s">
+      <c r="CB3" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="BZ3" s="18" t="s">
+      <c r="CC3" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="CA3" s="18" t="s">
+      <c r="CD3" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="CB3" s="18" t="s">
+      <c r="CE3" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="CC3" s="18" t="s">
+      <c r="CF3" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="CD3" s="18" t="s">
+      <c r="CG3" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="CE3" s="18" t="s">
+      <c r="CH3" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="CF3" s="18" t="s">
+      <c r="CI3" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="CG3" s="18" t="s">
+      <c r="CJ3" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="CH3" s="18" t="s">
+      <c r="CK3" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="CI3" s="18" t="s">
+      <c r="CL3" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="CJ3" s="18" t="s">
+      <c r="CM3" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="CK3" s="18" t="s">
+      <c r="CN3" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="CL3" s="18" t="s">
+      <c r="CO3" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="CM3" s="18" t="s">
+      <c r="CP3" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="CN3" s="18" t="s">
+      <c r="CQ3" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="CO3" s="18" t="s">
+      <c r="CR3" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="CP3" s="18" t="s">
+      <c r="CS3" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="CQ3" s="18" t="s">
+      <c r="CT3" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="CR3" s="18" t="s">
+      <c r="CU3" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="CS3" s="18" t="s">
+      <c r="CV3" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="CT3" s="18" t="s">
+      <c r="CW3" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="CU3" s="18" t="s">
+      <c r="CX3" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="CV3" s="18" t="s">
+      <c r="CY3" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="CW3" s="18" t="s">
+      <c r="CZ3" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="CX3" s="18" t="s">
+      <c r="DA3" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="CY3" s="18" t="s">
+      <c r="DB3" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="CZ3" s="18" t="s">
+      <c r="DC3" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="DA3" s="18" t="s">
+      <c r="DD3" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="DB3" s="18" t="s">
+      <c r="DE3" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="DC3" s="18" t="s">
+      <c r="DF3" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="DD3" s="18" t="s">
+      <c r="DG3" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="DE3" s="18" t="s">
+      <c r="DH3" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="DF3" s="18" t="s">
+      <c r="DI3" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="DG3" s="18" t="s">
+      <c r="DJ3" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="DH3" s="18" t="s">
+      <c r="DK3" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="DI3" s="18" t="s">
+      <c r="DL3" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="DJ3" s="18" t="s">
+      <c r="DM3" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="DK3" s="18" t="s">
+      <c r="DN3" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="DL3" s="18" t="s">
+      <c r="DO3" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="DM3" s="18" t="s">
+      <c r="DP3" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="DN3" s="19" t="s">
+      <c r="DQ3" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="DO3" s="19" t="s">
+      <c r="DR3" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="DP3" s="19" t="s">
+      <c r="DS3" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="DQ3" s="19" t="s">
+      <c r="DT3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="DR3" s="19" t="s">
+      <c r="DU3" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="DS3" s="19" t="s">
+      <c r="DV3" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="DT3" s="19" t="s">
+      <c r="DW3" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="DU3" s="19" t="s">
+      <c r="DX3" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="DV3" s="19" t="s">
+      <c r="DY3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="DW3" s="19" t="s">
+      <c r="DZ3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="DX3" s="19" t="s">
+      <c r="EA3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="DY3" s="19" t="s">
+      <c r="EB3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="DZ3" s="19" t="s">
+      <c r="EC3" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="EA3" s="19" t="s">
+      <c r="ED3" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="EB3" s="19" t="s">
+      <c r="EE3" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="EC3" s="19" t="s">
+      <c r="EF3" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="ED3" s="19" t="s">
+      <c r="EG3" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="EE3" s="19" t="s">
+      <c r="EH3" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="EF3" s="19" t="s">
+      <c r="EI3" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="EG3" s="19" t="s">
+      <c r="EJ3" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="EH3" s="19" t="s">
+      <c r="EK3" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="EI3" s="19" t="s">
+      <c r="EL3" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="EJ3" s="19" t="s">
+      <c r="EM3" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="EK3" s="19" t="s">
+      <c r="EN3" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="EL3" s="19" t="s">
+      <c r="EO3" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="EM3" s="19" t="s">
+      <c r="EP3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="EN3" s="19" t="s">
+      <c r="EQ3" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="EO3" s="20" t="s">
+      <c r="ER3" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="EP3" s="20" t="s">
+      <c r="ES3" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="EQ3" s="20" t="s">
+      <c r="ET3" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="ER3" s="20" t="s">
+      <c r="EU3" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="ES3" s="20" t="s">
+      <c r="EV3" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="ET3" s="20" t="s">
+      <c r="EW3" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="EU3" s="20" t="s">
+      <c r="EX3" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="EV3" s="21" t="s">
+      <c r="EY3" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="EW3" s="21" t="s">
+      <c r="EZ3" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="EX3" s="21" t="s">
+      <c r="FA3" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="EY3" s="21" t="s">
+      <c r="FB3" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="EZ3" s="21" t="s">
+      <c r="FC3" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="FA3" s="21" t="s">
+      <c r="FD3" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="FB3" s="21" t="s">
+      <c r="FE3" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="FC3" s="21" t="s">
+      <c r="FF3" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="FD3" s="21" t="s">
+      <c r="FG3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="FE3" s="21" t="s">
+      <c r="FH3" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="FF3" s="21" t="s">
+      <c r="FI3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="FG3" s="21" t="s">
+      <c r="FJ3" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="FH3" s="21" t="s">
+      <c r="FK3" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="FI3" s="21" t="s">
+      <c r="FL3" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="FJ3" s="21" t="s">
+      <c r="FM3" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="FK3" s="21" t="s">
+      <c r="FN3" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="FL3" s="21" t="s">
+      <c r="FO3" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="FM3" s="21" t="s">
+      <c r="FP3" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="FN3" s="21" t="s">
+      <c r="FQ3" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="FO3" s="21" t="s">
+      <c r="FR3" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="FP3" s="21" t="s">
+      <c r="FS3" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="FQ3" s="21" t="s">
+      <c r="FT3" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="FR3" s="21" t="s">
+      <c r="FU3" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="FS3" s="21" t="s">
+      <c r="FV3" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="FT3" s="21" t="s">
+      <c r="FW3" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="FU3" s="21" t="s">
+      <c r="FX3" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="FV3" s="21" t="s">
+      <c r="FY3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="FW3" s="21" t="s">
+      <c r="FZ3" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="FX3" s="21" t="s">
+      <c r="GA3" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="FY3" s="21" t="s">
+      <c r="GB3" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="FZ3" s="21" t="s">
+      <c r="GC3" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="GA3" s="21" t="s">
+      <c r="GD3" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="GB3" s="21" t="s">
+      <c r="GE3" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="GC3" s="21" t="s">
+      <c r="GF3" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="GD3" s="21" t="s">
+      <c r="GG3" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="GE3" s="21" t="s">
+      <c r="GH3" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="GF3" s="21" t="s">
+      <c r="GI3" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="GG3" s="21" t="s">
+      <c r="GJ3" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="GH3" s="21" t="s">
+      <c r="GK3" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="GI3" s="21" t="s">
+      <c r="GL3" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="GJ3" s="21" t="s">
+      <c r="GM3" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="GK3" s="21" t="s">
+      <c r="GN3" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="GL3" s="21" t="s">
+      <c r="GO3" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="GM3" s="21" t="s">
+      <c r="GP3" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="GN3" s="21" t="s">
+      <c r="GQ3" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="GO3" s="21" t="s">
+      <c r="GR3" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="GP3" s="21" t="s">
+      <c r="GS3" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="GQ3" s="21" t="s">
+      <c r="GT3" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="GR3" s="21" t="s">
+      <c r="GU3" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="GS3" s="21" t="s">
+      <c r="GV3" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="GT3" s="21" t="s">
+      <c r="GW3" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="GU3" s="21" t="s">
+      <c r="GX3" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="GV3" s="22" t="s">
+      <c r="GY3" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="GW3" s="22" t="s">
+      <c r="GZ3" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="GX3" s="22" t="s">
+      <c r="HA3" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="GY3" s="22" t="s">
+      <c r="HB3" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="GZ3" s="22" t="s">
+      <c r="HC3" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="HA3" s="22" t="s">
+      <c r="HD3" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="HB3" s="22" t="s">
+      <c r="HE3" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="HC3" s="22" t="s">
+      <c r="HF3" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="HD3" s="22" t="s">
+      <c r="HG3" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="HE3" s="22" t="s">
+      <c r="HH3" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="HF3" s="22" t="s">
+      <c r="HI3" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="HG3" s="22" t="s">
+      <c r="HJ3" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="HH3" s="22" t="s">
+      <c r="HK3" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="HI3" s="22" t="s">
+      <c r="HL3" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="HJ3" s="22" t="s">
+      <c r="HM3" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="HK3" s="22" t="s">
+      <c r="HN3" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="HL3" s="22" t="s">
+      <c r="HO3" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="HM3" s="22" t="s">
+      <c r="HP3" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="HN3" s="22" t="s">
+      <c r="HQ3" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="HO3" s="22" t="s">
+      <c r="HR3" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="HP3" s="22" t="s">
+      <c r="HS3" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="HQ3" s="22" t="s">
+      <c r="HT3" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="HR3" s="22" t="s">
+      <c r="HU3" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="HS3" s="16" t="s">
+      <c r="HV3" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="HT3" s="16" t="s">
+      <c r="HW3" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="HU3" s="16" t="s">
+      <c r="HX3" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="HV3" s="16" t="s">
+      <c r="HY3" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="HW3" s="16" t="s">
+      <c r="HZ3" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="HX3" s="16" t="s">
+      <c r="IA3" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="HY3" s="16" t="s">
+      <c r="IB3" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="HZ3" s="16" t="s">
+      <c r="IC3" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="IA3" s="16" t="s">
+      <c r="ID3" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="IB3" s="16" t="s">
+      <c r="IE3" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="IC3" s="16" t="s">
+      <c r="IF3" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="ID3" s="16" t="s">
+      <c r="IG3" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="IE3" s="16" t="s">
+      <c r="IH3" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="IF3" s="16" t="s">
+      <c r="II3" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="IG3" s="16" t="s">
+      <c r="IJ3" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="IH3" s="16" t="s">
+      <c r="IK3" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="II3" s="16" t="s">
+      <c r="IL3" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="IJ3" s="16" t="s">
+      <c r="IM3" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="IK3" s="16" t="s">
+      <c r="IN3" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="IL3" s="16" t="s">
+      <c r="IO3" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="IM3" s="16" t="s">
+      <c r="IP3" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="IN3" s="16" t="s">
+      <c r="IQ3" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="IO3" s="16" t="s">
+      <c r="IR3" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="IP3" s="16" t="s">
+      <c r="IS3" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="IQ3" s="16" t="s">
+      <c r="IT3" s="16" t="s">
         <v>331</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="110">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="GF3 FE3 EJ3 EG3 EC3 EA3 DW3:DY3 DS3:DU3 DP3 CV3 CR3 CM3 CK3 BY3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point." sqref="EO3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole number between 1-16." sqref="CH3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;Lumen&quot; will be appended to the value automatically, so that a value of 140 will display as 140 Lumen." sqref="CG3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole number" sqref="CI3 CC3 CA3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="HS3:IQ3 GJ3 EU3 AB3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point.  The unit &quot;HP&quot; will be appended to the value automatically, so that a value of 10 will display as 10 HP." sqref="BQ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="This is the date when you can deliver a pre-orderable product (one that has never been available prior to this date) to a customer." sqref="HR3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A date in this format: yyyy-mm-dd." sqref="HO3 HD3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 500 characters maximum in length." sqref="HN3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select: true or false" sqref="HK3 FG3:FH3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select: True or False" sqref="HL3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The last date that the sale price will override the item's standard price; the product's standard price will be displayed after 0:00AM of Sale End Date." sqref="HI3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The date that the sale price will begin to override the product's standard price; the sale price will be displayed after 0:00AM of Sale From Date." sqref="HH3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="You can place your listings on sale by entering a sale price (expressed in local currency) along with start and end dates." sqref="HG3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A text string with a maximum of 1,000 characters. The Condition Note field doesn’t allow special characters." sqref="GX3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Enter the product tax code supplied to you by Amazon.com." sqref="HF3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive integer." sqref="HE3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicates the time, in days, between when you receive an order for an item and when you can ship the item.  The default is one to two business days. Use this field if you expect to take longer than two business days." sqref="HC3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Used; Like New_x000a_Used; Very Good_x000a_Used; Good_x000a_Used; Acceptable_x000a_Collectible; Like New_x000a_Collectible; Very Good_x000a_Collectible; Good_x000a_Collectible; Acceptable_x000a_New" sqref="GW3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Date in this format: yyyy-mm-dd" sqref="HB3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A date in this format: yyyy/mm/dd." sqref="HA3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="For MAP (Minimum Advertised Price) based pricing.  If you have never heard this term before, this function probably does not apply to you." sqref="GZ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Manufacturer's suggested retail price. This is not the price that Amazon customers will pay for your product." sqref="GY3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Three letter currency code" sqref="GV3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The maximum quantity of the product that a customer may purchase in one order" sqref="HP3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The ship configuration group for an offer. The ship configuration group is created and managed by the seller through the ship setting UI." sqref="HQ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="GQ3:GU3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select the warning type applicable to your product, if any. You certify that the warning provided satisfies legal requirements and that you’ll remove a warning previously provided only if it is no longer legally required." sqref="GP3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Global Harmonized System (GHS) CLP classification system." sqref="GM3:GO3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select a value from the Valid Values tab." sqref="GL3 EN3 BE3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits allowed to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="GI3 EK3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The image must have a resolution of 72 pixels per inch and a minimum length of 500 pixels (on the longest side). The recommended format for the file is JPEG (.jpg) and the URL must be correctly formed and valid (e.g. include http://). We recommend incl..." sqref="GK3 GH3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicates the volume capacity of a product." sqref="GG3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Holds link to the externally hosted SDS (Safety Data Sheet) for an item" sqref="GE3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Hazmat United Nationals Regulatory ID" sqref="GD3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select the applicable response from the dropdown." sqref="FY3:GC3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select the unit of measure for Lithium Battery Weight  . If Lithium Battery Weight  is used, you must also enter theLithium Battery Weight  Unit Of Measure." sqref="FX3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicate unit of measure if Lithium Battery Energy Content is populated" sqref="FW3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Unit of measure used to describe the battery weight" sqref="FV3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Number up to 10 digits and 2 decimal points long." sqref="FU3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number." sqref="FL3:FN3 FJ3 ED3 DM3 DK3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select from one of the following:               nbatteries_onlynbatteries_contained_in_equipmentnbatteries_packed_with_equipment" sqref="FK3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="What type or composition is the battery?" sqref="FI3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Any integer greater than or equal to zero" sqref="FR3:FT3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please refer to the Valid Values worksheet.  Only use this when PowerSource is 'battery'" sqref="FO3:FQ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a value from the Valid Values worksheet." sqref="FD3 EW3 DV3 DO3 DF3:DH3 DD3 CZ3:DA3 CQ3 CJ3 CD3:CF3 CB3 BU3:BW3 BR3 BM3:BP3 BI3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The California Air Resources Board, also known as CARB, is the &quot;clean air agency&quot; in the government of California. To improve air quality, CARB requires vehicle manufacturers to develop engine and emission equipment systems that reduce the specific pol..." sqref="FB3:FC3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="The unit of measure used to describe the weight of the product without shipping material." sqref="FF3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A two letter code that indicates the country where the product originates from." sqref="EV3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Imported; Made in USA or Imported; Made in USA and Imported; Made in USA" sqref="FA3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric text string; 1 character minimum and 50 characters maximum." sqref="EZ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 250 characters maximum in length." sqref="EY3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Use this field to indicate if a cautionary statement relating to the choking hazards of children's toys and games applies to your product.  These cautionary statements are defined in Section 24 of the Federal Hazardous Substances Act and Section 105 of..." sqref="EX3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="AMAZON_NA, DEFAULT" sqref="ET3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: MM, IN, CM, FT, M" sqref="EB3 DZ3 CY3 CS3 CN3:CO3 CL3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas.  The unit &quot;PSI&quot; (pounds per sq. inch) will be appended to the value automatically, so that a value of 70 will displ..." sqref="DR3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 50 characters maximum. If multiple colors are available, a unique record should be submitted for each product._x000a_E.g. stainless-steel, black, ecru, cherry" sqref="BK3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 50 characters maximum." sqref="BA3:BD3 BF3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select from the list of valid values" sqref="ES3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Search terms that describe your product: no repetition, no competitor brand names or ASINs." sqref="AZ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 40 characters maximum in length." sqref="AC3 Z3 V3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: Update, PartialUpdate, or Delete." sqref="Y3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select and applicable variation theme." sqref="X3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: _x000a_Accessory                                                                      Variation" sqref="W3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select one of the following values: _x000a__x000a_parent_x000a_child" sqref="U3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="L3:S3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Images should have 72-pixels-per-inch resolution and be 30 pixels maximum length (on the longest side). The preferred file format is JPEG (.jpg). When naming your image, please use the following convention: Product SKU + View Indicator (i.e., .swatch) ..." sqref="T3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Images should have 72-pixels-per-inch resolution and be 500 pixels minimum in length (on the longest side). The preferred file format is JPEG (.jpg), and the URL must be fully-formed and valid (i.e., include http://). When naming your image, you may us..." sqref="K3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole number." sqref="DC3 J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="GI3 FH3 EM3 EJ3 EF3 ED3 DZ3:EB3 DV3:DX3 DS3 CY3 CU3 CP3 CN3 CB3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point." sqref="ER3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole number between 1-16." sqref="CK3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;Lumen&quot; will be appended to the value automatically, so that a value of 140 will display as 140 Lumen." sqref="CJ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole number" sqref="CL3 CF3 CD3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="HV3:IT3 GM3 EX3 AF3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point.  The unit &quot;HP&quot; will be appended to the value automatically, so that a value of 10 will display as 10 HP." sqref="BT3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="This is the date when you can deliver a pre-orderable product (one that has never been available prior to this date) to a customer." sqref="HU3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A date in this format: yyyy-mm-dd." sqref="HR3 HG3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 500 characters maximum in length." sqref="HQ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select: true or false" sqref="HN3 FJ3:FK3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select: True or False" sqref="HO3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="The last date that the sale price will override the item's standard price; the product's standard price will be displayed after 0:00AM of Sale End Date." sqref="HL3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="The date that the sale price will begin to override the product's standard price; the sale price will be displayed after 0:00AM of Sale From Date." sqref="HK3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="You can place your listings on sale by entering a sale price (expressed in local currency) along with start and end dates." sqref="HJ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A text string with a maximum of 1,000 characters. The Condition Note field doesn’t allow special characters." sqref="HA3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Enter the product tax code supplied to you by Amazon.com." sqref="HI3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive integer." sqref="HH3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicates the time, in days, between when you receive an order for an item and when you can ship the item.  The default is one to two business days. Use this field if you expect to take longer than two business days." sqref="HF3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Used; Like New_x000a_Used; Very Good_x000a_Used; Good_x000a_Used; Acceptable_x000a_Collectible; Like New_x000a_Collectible; Very Good_x000a_Collectible; Good_x000a_Collectible; Acceptable_x000a_New" sqref="GZ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Date in this format: yyyy-mm-dd" sqref="HE3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A date in this format: yyyy/mm/dd." sqref="HD3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="For MAP (Minimum Advertised Price) based pricing.  If you have never heard this term before, this function probably does not apply to you." sqref="HC3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Manufacturer's suggested retail price. This is not the price that Amazon customers will pay for your product." sqref="HB3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Three letter currency code" sqref="GY3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="The maximum quantity of the product that a customer may purchase in one order" sqref="HS3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="The ship configuration group for an offer. The ship configuration group is created and managed by the seller through the ship setting UI." sqref="HT3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="If you selected the Food, Furniture, or Chemical warning you must indicate a chemical(s). You certify that the chemical(s) satisfies legal requirements and that you’ll remove a chemical previously provided only if it is no longer legally required." sqref="GT3:GX3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select the warning type applicable to your product, if any. You certify that the warning provided satisfies legal requirements and that you’ll remove a warning previously provided only if it is no longer legally required." sqref="GS3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Global Harmonized System (GHS) CLP classification system." sqref="GP3:GR3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select a value from the Valid Values tab." sqref="GO3 EQ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits allowed to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas." sqref="GL3 EN3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="The image must have a resolution of 72 pixels per inch and a minimum length of 500 pixels (on the longest side). The recommended format for the file is JPEG (.jpg) and the URL must be correctly formed and valid (e.g. include http://). We recommend incl..." sqref="GN3 GK3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicates the volume capacity of a product." sqref="GJ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Holds link to the externally hosted SDS (Safety Data Sheet) for an item" sqref="GH3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Hazmat United Nationals Regulatory ID" sqref="GG3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select the applicable response from the dropdown." sqref="GB3:GF3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select the unit of measure for Lithium Battery Weight  . If Lithium Battery Weight  is used, you must also enter theLithium Battery Weight  Unit Of Measure." sqref="GA3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Indicate unit of measure if Lithium Battery Energy Content is populated" sqref="FZ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Unit of measure used to describe the battery weight" sqref="FY3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Number up to 10 digits and 2 decimal points long." sqref="FX3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number." sqref="FO3:FQ3 FM3 EG3 DP3 DN3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select from one of the following:               nbatteries_onlynbatteries_contained_in_equipmentnbatteries_packed_with_equipment" sqref="FN3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="What type or composition is the battery?" sqref="FL3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Any integer greater than or equal to zero" sqref="FU3:FW3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please refer to the Valid Values worksheet.  Only use this when PowerSource is 'battery'" sqref="FR3:FT3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a value from the Valid Values worksheet." sqref="FG3 EZ3 DY3 DR3 DI3:DK3 DG3 DC3:DD3 CT3 CM3 CG3:CI3 CE3 BX3:BZ3 BU3 BP3:BS3 BL3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="The California Air Resources Board, also known as CARB, is the &quot;clean air agency&quot; in the government of California. To improve air quality, CARB requires vehicle manufacturers to develop engine and emission equipment systems that reduce the specific pol..." sqref="FE3:FF3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="The unit of measure used to describe the weight of the product without shipping material." sqref="FI3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A two letter code that indicates the country where the product originates from." sqref="EY3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Imported; Made in USA or Imported; Made in USA and Imported; Made in USA" sqref="FD3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric text string; 1 character minimum and 50 characters maximum." sqref="FC3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 250 characters maximum in length." sqref="FB3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Use this field to indicate if a cautionary statement relating to the choking hazards of children's toys and games applies to your product.  These cautionary statements are defined in Section 24 of the Federal Hazardous Substances Act and Section 105 of..." sqref="FA3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="AMAZON_NA, DEFAULT" sqref="EW3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: MM, IN, CM, FT, M" sqref="EE3 EC3 DB3 CV3 CQ3:CR3 CO3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas.  The unit &quot;PSI&quot; (pounds per sq. inch) will be appended to the value automatically, so that a value of 70 will displ..." sqref="DU3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 50 characters maximum. If multiple colors are available, a unique record should be submitted for each product._x000a_E.g. stainless-steel, black, ecru, cherry" sqref="BN3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 50 characters maximum." sqref="BE3:BI3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select from the list of valid values" sqref="EV3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Search terms that describe your product: no repetition, no competitor brand names or ASINs." sqref="BD3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 40 characters maximum in length." sqref="AG3 AD3 Z3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: Update, PartialUpdate, or Delete." sqref="AC3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select and applicable variation theme." sqref="AB3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: _x000a_Accessory                                                                      Variation" sqref="AA3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please select one of the following values: _x000a__x000a_parent_x000a_child" sqref="Y3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A valid URL, including leading &quot;http://&quot;_x000a__x000a_The url is case sensitive, so make sure to use matching capitalization and no redirections (e.g. .jpeg instead of .jpg). While a web browser might be smart enough to locate your image despite of these little in..." sqref="P3:W3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Images should have 72-pixels-per-inch resolution and be 30 pixels maximum length (on the longest side). The preferred file format is JPEG (.jpg). When naming your image, please use the following convention: Product SKU + View Indicator (i.e., .swatch) ..." sqref="X3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Images should have 72-pixels-per-inch resolution and be 500 pixels minimum in length (on the longest side). The preferred file format is JPEG (.jpg), and the URL must be fully-formed and valid (i.e., include http://). When naming your image, you may us..." sqref="O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole number." sqref="DF3 J3:N3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="The price at which the product is offered for sale, in the local currency." sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 100 characters maximum in length. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are not supported." sqref="F3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="The type of standard, unique identifier entered in the Product ID field. This is a required field if Product ID is provided." sqref="E3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Any valid GCID, UPC, or EAN." sqref="D3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Unique Identifier." sqref="B3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Input an approprate product type." sqref="A3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: true or false" sqref="HM3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole positive number." sqref="HJ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 2 decimal places. Please use a full stop (.) rather than a comma (,) for a decimal point" sqref="EP3:ER3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please see the Valid Values worksheet for the list of accepted values." sqref="EM3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Coupling Diameter" sqref="EL3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Number" sqref="EI3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: LB, OZ, KG, GR" sqref="EH3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a Value from the Valid Values worksheet." sqref="EF3 DN3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 12 digits allowed to the left of the decimal point and 2 digits allowed to the right of the decimal point. Please do not use commas or dollar signs." sqref="EE3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: IN, CM , MM, gauge" sqref="DQ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: minutes, hours, days" sqref="DL3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A text field." sqref="DJ3 CT3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: Square foot, Roll" sqref="DI3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Can be text or a number with the unit of measure included." sqref="DE3 DB3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number or a fraction representation." sqref="CX3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: _x000a_centimeter_kilograms_x000a_foot_pounds_x000a_inch_ounces_x000a_inch_pounds_x000a_kilonewtons_x000a_newton_meters_x000a_newton_millimeters_x000a_newtons" sqref="CW3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;TPI&quot;, Teeth Per Inch, will be appended to the value automatically, so that a value of 14 will display as 14 TPI." sqref="CU3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;TPI&quot;, Threads Per Inch, will be appended to the value automatically, so that a value of 14 will display as 14 TPI." sqref="CP3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options:  Sones, decibel" sqref="BZ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas.  The unit &quot;CFM&quot; (cubic feet per minute) will be appended to the value automatically, so that a value of 1000 will d..." sqref="BX3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas.  The unit &quot;amps&quot; will be appended to the value automatically, so that a value of 10 will display as 10 amps." sqref="BT3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;Volts&quot; will be appended to the value automatically, so that a value of 120 will display as 120V." sqref="BS3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a value from the Valid Values worksheet.  Only those values will be accepted." sqref="BL3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a value or an example from the Valid Values worksheet." sqref="BJ3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="See  Valid Values worksheet for examples of the type of data which would be accepted." sqref="BH3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 5 digits to the left of the decimal point and 1 digit to the right of the decimal point. Please do not use commas. The unit &quot;Watts&quot; will be appended to the value automatically, so that a value of 60 will display as 60 W." sqref="BG3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a subject content value from the BTG" sqref="AU3:AY3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select other item attribute values from the BTG" sqref="AT3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a target audience value from the BTG" sqref="AN3:AS3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a used for value from the BTG" sqref="AI3:AM3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 100 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AD3:AH3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="A text string; 2,000 characters maximum in length. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are not supported." sqref="AA3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: true or false" sqref="HP3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A whole positive number." sqref="HM3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 2 decimal places. Please use a full stop (.) rather than a comma (,) for a decimal point" sqref="ES3:EU3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Please see the Valid Values worksheet for the list of accepted values." sqref="EP3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Coupling Diameter" sqref="EO3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Number" sqref="EL3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: LB, OZ, KG, GR" sqref="EK3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a Value from the Valid Values worksheet." sqref="EI3 DQ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 12 digits allowed to the left of the decimal point and 2 digits allowed to the right of the decimal point. Please do not use commas or dollar signs." sqref="EH3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: IN, CM , MM, gauge" sqref="DT3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: minutes, hours, days" sqref="DO3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A text field." sqref="DM3 CW3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: Square foot, Roll" sqref="DL3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Can be text or a number with the unit of measure included." sqref="DH3 DE3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number or a fraction representation." sqref="DA3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options: _x000a_centimeter_kilograms_x000a_foot_pounds_x000a_inch_ounces_x000a_inch_pounds_x000a_kilonewtons_x000a_newton_meters_x000a_newton_millimeters_x000a_newtons" sqref="CZ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;TPI&quot;, Teeth Per Inch, will be appended to the value automatically, so that a value of 14 will display as 14 TPI." sqref="CX3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;TPI&quot;, Threads Per Inch, will be appended to the value automatically, so that a value of 14 will display as 14 TPI." sqref="CS3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the following options:  Sones, decibel" sqref="CC3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas.  The unit &quot;CFM&quot; (cubic feet per minute) will be appended to the value automatically, so that a value of 1000 will d..." sqref="CA3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 10 digits to the left of the decimal point and 2 digits to the right of the decimal point. Please do not use commas.  The unit &quot;amps&quot; will be appended to the value automatically, so that a value of 10 will display as 10 amps." sqref="BW3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A positive whole number. The unit &quot;Volts&quot; will be appended to the value automatically, so that a value of 120 will display as 120V." sqref="BV3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a value from the Valid Values worksheet.  Only those values will be accepted." sqref="BO3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a value or an example from the Valid Values worksheet." sqref="BM3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="See  Valid Values worksheet for examples of the type of data which would be accepted." sqref="BK3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A number with up to 5 digits to the left of the decimal point and 1 digit to the right of the decimal point. Please do not use commas. The unit &quot;Watts&quot; will be appended to the value automatically, so that a value of 60 will display as 60 W." sqref="BJ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a subject content value from the BTG" sqref="AY3:BC3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select other item attribute values from the BTG" sqref="AX3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a target audience value from the BTG" sqref="AR3:AW3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select a used for value from the BTG" sqref="AM3:AQ3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 100 characters maximum length per bullet point. Please do not include an actual bullet point object, just the text used to describe your product. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are..." sqref="AH3:AL3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="A text string; 2,000 characters maximum in length. Note: Type 1 High ASCII characters (®, ©, ™, etc.) or other special characters are not supported." sqref="AE3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Select an item type value from the BTG" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="An alphanumeric string; 1 character minimum in length and 50 characters maximum in length." sqref="G3 C3"/>
   </dataValidations>
